--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124013a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124013a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>total(1)</t>
   </si>
@@ -25,7 +25,7 @@
     <t>cor ou raça</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
+    <t>total</t>
   </si>
   <si>
     <t>homens</t>
@@ -49,16 +49,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -512,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,31 +582,52 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>1.37738831238657</v>
+      </c>
+      <c r="C5">
+        <v>1.639778890132279</v>
+      </c>
+      <c r="D5">
+        <v>1.720650832981619</v>
+      </c>
+      <c r="E5">
+        <v>1.859607577120721</v>
+      </c>
+      <c r="F5">
+        <v>1.642706461625858</v>
+      </c>
+      <c r="G5">
+        <v>3.466028040802614</v>
+      </c>
+      <c r="H5">
+        <v>1.77136665722579</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1.37738831238657</v>
+        <v>9.21394459335011</v>
       </c>
       <c r="C6">
-        <v>1.639778890132279</v>
+        <v>9.266599396030445</v>
       </c>
       <c r="D6">
-        <v>1.720650832981619</v>
+        <v>11.30873917310789</v>
       </c>
       <c r="E6">
-        <v>1.859607577120721</v>
+        <v>10.58238938205109</v>
       </c>
       <c r="F6">
-        <v>1.642706461625858</v>
+        <v>10.57668791631676</v>
       </c>
       <c r="G6">
-        <v>3.466028040802614</v>
+        <v>20.32758661470452</v>
       </c>
       <c r="H6">
-        <v>1.77136665722579</v>
+        <v>10.49638328305208</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -620,56 +635,77 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>9.21394459335011</v>
+        <v>3.755766697963424</v>
       </c>
       <c r="C7">
-        <v>9.266599396030445</v>
+        <v>4.466046203288853</v>
       </c>
       <c r="D7">
-        <v>11.30873917310789</v>
+        <v>4.115853640336503</v>
       </c>
       <c r="E7">
-        <v>10.58238938205109</v>
+        <v>4.594549130616445</v>
       </c>
       <c r="F7">
-        <v>10.57668791631676</v>
+        <v>4.199352969493687</v>
       </c>
       <c r="G7">
-        <v>20.32758661470452</v>
+        <v>8.927825959261657</v>
       </c>
       <c r="H7">
-        <v>10.49638328305208</v>
+        <v>4.218035027254006</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B8">
+        <v>10.5709622569063</v>
+      </c>
+      <c r="C8">
+        <v>11.91444803924719</v>
+      </c>
+      <c r="D8">
+        <v>14.01197776805135</v>
+      </c>
+      <c r="E8">
+        <v>16.94211010065382</v>
+      </c>
+      <c r="F8">
+        <v>10.52492495150052</v>
+      </c>
+      <c r="G8">
+        <v>24.75110875601033</v>
+      </c>
+      <c r="H8">
+        <v>11.28112942838525</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9">
-        <v>3.755766697963424</v>
+        <v>12.36559798347243</v>
       </c>
       <c r="C9">
-        <v>4.466046203288853</v>
+        <v>14.69581847723443</v>
       </c>
       <c r="D9">
-        <v>4.115853640336503</v>
+        <v>21.94312537639878</v>
       </c>
       <c r="E9">
-        <v>4.594549130616445</v>
+        <v>14.29219018165393</v>
       </c>
       <c r="F9">
-        <v>4.199352969493687</v>
+        <v>14.97462684829901</v>
       </c>
       <c r="G9">
-        <v>8.927825959261657</v>
+        <v>41.60997024622981</v>
       </c>
       <c r="H9">
-        <v>4.218035027254006</v>
+        <v>15.72712012390291</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -677,25 +713,25 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>10.5709622569063</v>
+        <v>8.902114445508872</v>
       </c>
       <c r="C10">
-        <v>11.91444803924719</v>
+        <v>11.29812839252881</v>
       </c>
       <c r="D10">
-        <v>14.01197776805135</v>
+        <v>9.612509179274593</v>
       </c>
       <c r="E10">
-        <v>16.94211010065382</v>
+        <v>15.11495312910941</v>
       </c>
       <c r="F10">
-        <v>10.52492495150052</v>
+        <v>8.814049519872432</v>
       </c>
       <c r="G10">
-        <v>24.75110875601033</v>
+        <v>25.69377087602281</v>
       </c>
       <c r="H10">
-        <v>11.28112942838525</v>
+        <v>9.163764107717345</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -703,25 +739,25 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>12.36559798347243</v>
+        <v>16.30986814461272</v>
       </c>
       <c r="C11">
-        <v>14.69581847723443</v>
+        <v>14.60595940027085</v>
       </c>
       <c r="D11">
-        <v>21.94312537639878</v>
+        <v>24.59067816707877</v>
       </c>
       <c r="E11">
-        <v>14.29219018165393</v>
+        <v>34.45778533865328</v>
       </c>
       <c r="F11">
-        <v>14.97462684829901</v>
+        <v>15.2285593172381</v>
       </c>
       <c r="G11">
-        <v>41.60997024622981</v>
+        <v>33.61030936069596</v>
       </c>
       <c r="H11">
-        <v>15.72712012390291</v>
+        <v>15.52611919430735</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -729,25 +765,25 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>8.902114445508872</v>
+        <v>4.96855767699383</v>
       </c>
       <c r="C12">
-        <v>11.29812839252881</v>
+        <v>5.974229490946985</v>
       </c>
       <c r="D12">
-        <v>9.612509179274593</v>
+        <v>5.239079731821149</v>
       </c>
       <c r="E12">
-        <v>15.11495312910941</v>
+        <v>5.249854499324607</v>
       </c>
       <c r="F12">
-        <v>8.814049519872432</v>
+        <v>5.758329651526064</v>
       </c>
       <c r="G12">
-        <v>25.69377087602281</v>
+        <v>12.27477623770535</v>
       </c>
       <c r="H12">
-        <v>9.163764107717345</v>
+        <v>5.70408388144024</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -755,25 +791,25 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>16.30986814461272</v>
+        <v>19.02115427432114</v>
       </c>
       <c r="C13">
-        <v>14.60595940027085</v>
+        <v>18.78321087833605</v>
       </c>
       <c r="D13">
-        <v>24.59067816707877</v>
+        <v>23.91293883990989</v>
       </c>
       <c r="E13">
-        <v>34.45778533865328</v>
+        <v>23.31097627805626</v>
       </c>
       <c r="F13">
-        <v>15.2285593172381</v>
+        <v>19.30459226587493</v>
       </c>
       <c r="G13">
-        <v>33.61030936069596</v>
+        <v>29.31019821600461</v>
       </c>
       <c r="H13">
-        <v>15.52611919430735</v>
+        <v>21.49498635478332</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -781,25 +817,25 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>4.96855767699383</v>
+        <v>14.60578706437815</v>
       </c>
       <c r="C14">
-        <v>5.974229490946985</v>
+        <v>19.80938514840645</v>
       </c>
       <c r="D14">
-        <v>5.239079731821149</v>
+        <v>14.67944153660364</v>
       </c>
       <c r="E14">
-        <v>5.249854499324607</v>
+        <v>19.04555043384473</v>
       </c>
       <c r="F14">
-        <v>5.758329651526064</v>
+        <v>15.84138931909896</v>
       </c>
       <c r="G14">
-        <v>12.27477623770535</v>
+        <v>35.54046567460659</v>
       </c>
       <c r="H14">
-        <v>5.70408388144024</v>
+        <v>15.065712136835</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -807,25 +843,25 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>19.02115427432114</v>
+        <v>2.724880411166274</v>
       </c>
       <c r="C15">
-        <v>18.78321087833605</v>
+        <v>3.207941695562484</v>
       </c>
       <c r="D15">
-        <v>23.91293883990989</v>
+        <v>3.020852821798327</v>
       </c>
       <c r="E15">
-        <v>23.31097627805626</v>
+        <v>3.399642446086443</v>
       </c>
       <c r="F15">
-        <v>19.30459226587493</v>
+        <v>2.991574426362805</v>
       </c>
       <c r="G15">
-        <v>29.31019821600461</v>
+        <v>4.812669920320929</v>
       </c>
       <c r="H15">
-        <v>21.49498635478332</v>
+        <v>3.275862990469899</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -833,25 +869,25 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>14.60578706437815</v>
+        <v>16.35295807862486</v>
       </c>
       <c r="C16">
-        <v>19.80938514840645</v>
+        <v>15.9178552673106</v>
       </c>
       <c r="D16">
-        <v>14.67944153660364</v>
+        <v>19.55418394882693</v>
       </c>
       <c r="E16">
-        <v>19.04555043384473</v>
+        <v>19.87824217247729</v>
       </c>
       <c r="F16">
-        <v>15.84138931909896</v>
+        <v>16.37757522951232</v>
       </c>
       <c r="G16">
-        <v>35.54046567460659</v>
+        <v>18.16011883043073</v>
       </c>
       <c r="H16">
-        <v>15.065712136835</v>
+        <v>18.30794440460626</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -859,25 +895,25 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>2.724880411166274</v>
+        <v>10.83566281015835</v>
       </c>
       <c r="C17">
-        <v>3.207941695562484</v>
+        <v>13.23866592961507</v>
       </c>
       <c r="D17">
-        <v>3.020852821798327</v>
+        <v>12.93119754742362</v>
       </c>
       <c r="E17">
-        <v>3.399642446086443</v>
+        <v>17.53879299656476</v>
       </c>
       <c r="F17">
-        <v>2.991574426362805</v>
+        <v>13.35505032989743</v>
       </c>
       <c r="G17">
-        <v>4.812669920320929</v>
+        <v>37.08367925854562</v>
       </c>
       <c r="H17">
-        <v>3.275862990469899</v>
+        <v>13.63184041107232</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -885,25 +921,25 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>16.35295807862486</v>
+        <v>3.752818469148282</v>
       </c>
       <c r="C18">
-        <v>15.9178552673106</v>
+        <v>4.548055490724587</v>
       </c>
       <c r="D18">
-        <v>19.55418394882693</v>
+        <v>5.132783101611953</v>
       </c>
       <c r="E18">
-        <v>19.87824217247729</v>
+        <v>6.152938656688494</v>
       </c>
       <c r="F18">
-        <v>16.37757522951232</v>
+        <v>4.218452950826209</v>
       </c>
       <c r="G18">
-        <v>18.16011883043073</v>
+        <v>14.24297851047903</v>
       </c>
       <c r="H18">
-        <v>18.30794440460626</v>
+        <v>4.254117284361461</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -911,25 +947,25 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>10.83566281015835</v>
+        <v>7.82489793573504</v>
       </c>
       <c r="C19">
-        <v>13.23866592961507</v>
+        <v>10.58905369557833</v>
       </c>
       <c r="D19">
-        <v>12.93119754742362</v>
+        <v>7.525558142692103</v>
       </c>
       <c r="E19">
-        <v>17.53879299656476</v>
+        <v>8.742636005172795</v>
       </c>
       <c r="F19">
-        <v>13.35505032989743</v>
+        <v>9.987542145533761</v>
       </c>
       <c r="G19">
-        <v>37.08367925854562</v>
+        <v>22.81172440723386</v>
       </c>
       <c r="H19">
-        <v>13.63184041107232</v>
+        <v>10.24807929249013</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -937,25 +973,25 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>3.752818469148282</v>
+        <v>11.80634387356761</v>
       </c>
       <c r="C20">
-        <v>4.548055490724587</v>
+        <v>16.48618459413598</v>
       </c>
       <c r="D20">
-        <v>5.132783101611953</v>
+        <v>10.83676517154372</v>
       </c>
       <c r="E20">
-        <v>6.152938656688494</v>
+        <v>12.14394344172096</v>
       </c>
       <c r="F20">
-        <v>4.218452950826209</v>
+        <v>12.66896679638374</v>
       </c>
       <c r="G20">
-        <v>14.24297851047903</v>
+        <v>23.24594240018999</v>
       </c>
       <c r="H20">
-        <v>4.254117284361461</v>
+        <v>14.35074346039328</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -963,25 +999,25 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>7.82489793573504</v>
+        <v>5.036243846563104</v>
       </c>
       <c r="C21">
-        <v>10.58905369557833</v>
+        <v>6.706928800321468</v>
       </c>
       <c r="D21">
-        <v>7.525558142692103</v>
+        <v>5.258856778461439</v>
       </c>
       <c r="E21">
-        <v>8.742636005172795</v>
+        <v>5.631288591112515</v>
       </c>
       <c r="F21">
-        <v>9.987542145533761</v>
+        <v>6.212658607823379</v>
       </c>
       <c r="G21">
-        <v>22.81172440723386</v>
+        <v>12.6890850591608</v>
       </c>
       <c r="H21">
-        <v>10.24807929249013</v>
+        <v>6.355872904139944</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -989,25 +1025,25 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>11.80634387356761</v>
+        <v>9.168633113935989</v>
       </c>
       <c r="C22">
-        <v>16.48618459413598</v>
+        <v>12.24329529733863</v>
       </c>
       <c r="D22">
-        <v>10.83676517154372</v>
+        <v>12.31335278964242</v>
       </c>
       <c r="E22">
-        <v>12.14394344172096</v>
+        <v>16.41260053293013</v>
       </c>
       <c r="F22">
-        <v>12.66896679638374</v>
+        <v>9.750967952536802</v>
       </c>
       <c r="G22">
-        <v>23.24594240018999</v>
+        <v>43.10384552729687</v>
       </c>
       <c r="H22">
-        <v>14.35074346039328</v>
+        <v>10.17772839557542</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1015,25 +1051,25 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>5.036243846563104</v>
+        <v>7.344931518745458</v>
       </c>
       <c r="C23">
-        <v>6.706928800321468</v>
+        <v>7.813969505515286</v>
       </c>
       <c r="D23">
-        <v>5.258856778461439</v>
+        <v>10.71651855516472</v>
       </c>
       <c r="E23">
-        <v>5.631288591112515</v>
+        <v>10.57750588384837</v>
       </c>
       <c r="F23">
-        <v>6.212658607823379</v>
+        <v>8.146074896631587</v>
       </c>
       <c r="G23">
-        <v>12.6890850591608</v>
+        <v>23.60010040400155</v>
       </c>
       <c r="H23">
-        <v>6.355872904139944</v>
+        <v>8.985656654459069</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1041,25 +1077,25 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>9.168633113935989</v>
+        <v>4.461286882538914</v>
       </c>
       <c r="C24">
-        <v>12.24329529733863</v>
+        <v>5.362095994976021</v>
       </c>
       <c r="D24">
-        <v>12.31335278964242</v>
+        <v>5.109126025394539</v>
       </c>
       <c r="E24">
-        <v>16.41260053293013</v>
+        <v>8.432399762577715</v>
       </c>
       <c r="F24">
-        <v>9.750967952536802</v>
+        <v>4.405362482391477</v>
       </c>
       <c r="G24">
-        <v>43.10384552729687</v>
+        <v>5.837965775573879</v>
       </c>
       <c r="H24">
-        <v>10.17772839557542</v>
+        <v>5.306865519305508</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1067,25 +1103,25 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>7.344931518745458</v>
+        <v>2.408081055518748</v>
       </c>
       <c r="C25">
-        <v>7.813969505515286</v>
+        <v>2.889861425638164</v>
       </c>
       <c r="D25">
-        <v>10.71651855516472</v>
+        <v>3.093839136815026</v>
       </c>
       <c r="E25">
-        <v>10.57750588384837</v>
+        <v>3.045885850767487</v>
       </c>
       <c r="F25">
-        <v>8.146074896631587</v>
+        <v>3.078260602447345</v>
       </c>
       <c r="G25">
-        <v>23.60010040400155</v>
+        <v>7.12976512355734</v>
       </c>
       <c r="H25">
-        <v>8.985656654459069</v>
+        <v>3.34397321877112</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1093,25 +1129,25 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>4.461286882538914</v>
+        <v>4.326741569547564</v>
       </c>
       <c r="C26">
-        <v>5.362095994976021</v>
+        <v>5.255671052231703</v>
       </c>
       <c r="D26">
-        <v>5.109126025394539</v>
+        <v>5.85464515627701</v>
       </c>
       <c r="E26">
-        <v>8.432399762577715</v>
+        <v>6.460344364789335</v>
       </c>
       <c r="F26">
-        <v>4.405362482391477</v>
+        <v>5.490822806165658</v>
       </c>
       <c r="G26">
-        <v>5.837965775573879</v>
+        <v>12.82566748785544</v>
       </c>
       <c r="H26">
-        <v>5.306865519305508</v>
+        <v>5.892197347539682</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1119,25 +1155,25 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>2.408081055518748</v>
+        <v>8.563135502958145</v>
       </c>
       <c r="C27">
-        <v>2.889861425638164</v>
+        <v>11.9612945351094</v>
       </c>
       <c r="D27">
-        <v>3.093839136815026</v>
+        <v>9.777231023368309</v>
       </c>
       <c r="E27">
-        <v>3.045885850767487</v>
+        <v>12.62133329374519</v>
       </c>
       <c r="F27">
-        <v>3.078260602447345</v>
+        <v>10.11192665317048</v>
       </c>
       <c r="G27">
-        <v>7.12976512355734</v>
+        <v>19.07075372099226</v>
       </c>
       <c r="H27">
-        <v>3.34397321877112</v>
+        <v>11.21323671329059</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1145,25 +1181,25 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>4.326741569547564</v>
+        <v>4.763226747095959</v>
       </c>
       <c r="C28">
-        <v>5.255671052231703</v>
+        <v>5.322747989799526</v>
       </c>
       <c r="D28">
-        <v>5.85464515627701</v>
+        <v>6.038594512180011</v>
       </c>
       <c r="E28">
-        <v>6.460344364789335</v>
+        <v>5.941354949011715</v>
       </c>
       <c r="F28">
-        <v>5.490822806165658</v>
+        <v>6.324739334752127</v>
       </c>
       <c r="G28">
-        <v>12.82566748785544</v>
+        <v>12.63703482532886</v>
       </c>
       <c r="H28">
-        <v>5.892197347539682</v>
+        <v>7.069864221751343</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1171,25 +1207,25 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>8.563135502958145</v>
+        <v>3.548274894645624</v>
       </c>
       <c r="C29">
-        <v>11.9612945351094</v>
+        <v>4.315457370469436</v>
       </c>
       <c r="D29">
-        <v>9.777231023368309</v>
+        <v>4.558040905142185</v>
       </c>
       <c r="E29">
-        <v>12.62133329374519</v>
+        <v>4.172174804071296</v>
       </c>
       <c r="F29">
-        <v>10.11192665317048</v>
+        <v>4.889003075968827</v>
       </c>
       <c r="G29">
-        <v>19.07075372099226</v>
+        <v>12.37542020595572</v>
       </c>
       <c r="H29">
-        <v>11.21323671329059</v>
+        <v>5.257405500761277</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1197,25 +1233,25 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>4.763226747095959</v>
+        <v>3.516994114737189</v>
       </c>
       <c r="C30">
-        <v>5.322747989799526</v>
+        <v>3.991419727664221</v>
       </c>
       <c r="D30">
-        <v>6.038594512180011</v>
+        <v>4.803481830458473</v>
       </c>
       <c r="E30">
-        <v>5.941354949011715</v>
+        <v>3.797261581575226</v>
       </c>
       <c r="F30">
-        <v>6.324739334752127</v>
+        <v>7.157374134146247</v>
       </c>
       <c r="G30">
-        <v>12.63703482532886</v>
+        <v>11.96937623687208</v>
       </c>
       <c r="H30">
-        <v>7.069864221751343</v>
+        <v>8.324894723149214</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1223,25 +1259,25 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>3.548274894645624</v>
+        <v>5.392046562474387</v>
       </c>
       <c r="C31">
-        <v>4.315457370469436</v>
+        <v>6.134090943764553</v>
       </c>
       <c r="D31">
-        <v>4.558040905142185</v>
+        <v>7.370433042365796</v>
       </c>
       <c r="E31">
-        <v>4.172174804071296</v>
+        <v>5.680513220504713</v>
       </c>
       <c r="F31">
-        <v>4.889003075968827</v>
+        <v>10.46145866186001</v>
       </c>
       <c r="G31">
-        <v>12.37542020595572</v>
+        <v>22.7101709726318</v>
       </c>
       <c r="H31">
-        <v>5.257405500761277</v>
+        <v>11.43677191360967</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1249,25 +1285,25 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>3.516994114737189</v>
+        <v>14.72663557110378</v>
       </c>
       <c r="C32">
-        <v>3.991419727664221</v>
+        <v>15.69153346616054</v>
       </c>
       <c r="D32">
-        <v>4.803481830458473</v>
+        <v>19.88889115394779</v>
       </c>
       <c r="E32">
-        <v>3.797261581575226</v>
+        <v>16.24079432564708</v>
       </c>
       <c r="F32">
-        <v>7.157374134146247</v>
+        <v>23.82002900758819</v>
       </c>
       <c r="G32">
-        <v>11.96937623687208</v>
+        <v>68.59557686157692</v>
       </c>
       <c r="H32">
-        <v>8.324894723149214</v>
+        <v>25.15476152482724</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1275,25 +1311,25 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>5.392046562474387</v>
+        <v>4.299697990040326</v>
       </c>
       <c r="C33">
-        <v>6.134090943764553</v>
+        <v>5.044006091580243</v>
       </c>
       <c r="D33">
-        <v>7.370433042365796</v>
+        <v>6.024907415905902</v>
       </c>
       <c r="E33">
-        <v>5.680513220504713</v>
+        <v>4.651012075853457</v>
       </c>
       <c r="F33">
-        <v>10.46145866186001</v>
+        <v>9.622234855061389</v>
       </c>
       <c r="G33">
-        <v>22.7101709726318</v>
+        <v>13.88321737474477</v>
       </c>
       <c r="H33">
-        <v>11.43677191360967</v>
+        <v>12.06226055328625</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1301,25 +1337,25 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>14.72663557110378</v>
+        <v>3.942217668586689</v>
       </c>
       <c r="C34">
-        <v>15.69153346616054</v>
+        <v>4.390594104065465</v>
       </c>
       <c r="D34">
-        <v>19.88889115394779</v>
+        <v>5.276189471460327</v>
       </c>
       <c r="E34">
-        <v>16.24079432564708</v>
+        <v>5.212951555749338</v>
       </c>
       <c r="F34">
-        <v>23.82002900758819</v>
+        <v>4.715627591555791</v>
       </c>
       <c r="G34">
-        <v>68.59557686157692</v>
+        <v>9.73991575671973</v>
       </c>
       <c r="H34">
-        <v>25.15476152482724</v>
+        <v>4.859548050985375</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1327,25 +1363,25 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>4.299697990040326</v>
+        <v>13.19192602457822</v>
       </c>
       <c r="C35">
-        <v>5.044006091580243</v>
+        <v>13.14675691247869</v>
       </c>
       <c r="D35">
-        <v>6.024907415905902</v>
+        <v>18.14523528587615</v>
       </c>
       <c r="E35">
-        <v>4.651012075853457</v>
+        <v>15.49997710345877</v>
       </c>
       <c r="F35">
-        <v>9.622234855061389</v>
+        <v>16.61800378230724</v>
       </c>
       <c r="G35">
-        <v>13.88321737474477</v>
+        <v>45.32667127701782</v>
       </c>
       <c r="H35">
-        <v>12.06226055328625</v>
+        <v>16.33455074404088</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1353,25 +1389,25 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>3.942217668586689</v>
+        <v>9.467233031129078</v>
       </c>
       <c r="C36">
-        <v>4.390594104065465</v>
+        <v>12.37856335982541</v>
       </c>
       <c r="D36">
-        <v>5.276189471460327</v>
+        <v>12.31691531549199</v>
       </c>
       <c r="E36">
-        <v>5.212951555749338</v>
+        <v>11.80412053638838</v>
       </c>
       <c r="F36">
-        <v>4.715627591555791</v>
+        <v>11.55279276971266</v>
       </c>
       <c r="G36">
-        <v>9.73991575671973</v>
+        <v>21.96352840244552</v>
       </c>
       <c r="H36">
-        <v>4.859548050985375</v>
+        <v>11.91279612080941</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1379,25 +1415,25 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>13.19192602457822</v>
+        <v>6.423255527756911</v>
       </c>
       <c r="C37">
-        <v>13.14675691247869</v>
+        <v>7.027946147798937</v>
       </c>
       <c r="D37">
-        <v>18.14523528587615</v>
+        <v>8.663365657818817</v>
       </c>
       <c r="E37">
-        <v>15.49997710345877</v>
+        <v>8.467741754390925</v>
       </c>
       <c r="F37">
-        <v>16.61800378230724</v>
+        <v>7.643853689458211</v>
       </c>
       <c r="G37">
-        <v>45.32667127701782</v>
+        <v>16.00397149209483</v>
       </c>
       <c r="H37">
-        <v>16.33455074404088</v>
+        <v>7.818718511742127</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1405,76 +1441,24 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>9.467233031129078</v>
+        <v>6.264689019976874</v>
       </c>
       <c r="C38">
-        <v>12.37856335982541</v>
+        <v>6.574649623261494</v>
       </c>
       <c r="D38">
-        <v>12.31691531549199</v>
+        <v>8.208490663825463</v>
       </c>
       <c r="E38">
-        <v>11.80412053638838</v>
+        <v>9.145394199986329</v>
       </c>
       <c r="F38">
-        <v>11.55279276971266</v>
+        <v>7.047148321504591</v>
       </c>
       <c r="G38">
-        <v>21.96352840244552</v>
+        <v>13.86827315344451</v>
       </c>
       <c r="H38">
-        <v>11.91279612080941</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>6.423255527756911</v>
-      </c>
-      <c r="C39">
-        <v>7.027946147798937</v>
-      </c>
-      <c r="D39">
-        <v>8.663365657818817</v>
-      </c>
-      <c r="E39">
-        <v>8.467741754390925</v>
-      </c>
-      <c r="F39">
-        <v>7.643853689458211</v>
-      </c>
-      <c r="G39">
-        <v>16.00397149209483</v>
-      </c>
-      <c r="H39">
-        <v>7.818718511742127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>6.264689019976874</v>
-      </c>
-      <c r="C40">
-        <v>6.574649623261494</v>
-      </c>
-      <c r="D40">
-        <v>8.208490663825463</v>
-      </c>
-      <c r="E40">
-        <v>9.145394199986329</v>
-      </c>
-      <c r="F40">
-        <v>7.047148321504591</v>
-      </c>
-      <c r="G40">
-        <v>13.86827315344451</v>
-      </c>
-      <c r="H40">
         <v>7.572128264669893</v>
       </c>
     </row>
